--- a/biology/Zoologie/Coreus/Coreus.xlsx
+++ b/biology/Zoologie/Coreus/Coreus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coreus (les corées) est un genre d'insectes hétéroptères, des punaises de la famille des Coreidae, de la sous-famille des Coreinae et de la tribu des Coreini.
 </t>
@@ -511,15 +523,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le genre Coreus  a été décrit par le naturaliste danois Johan Christian Fabricius en 1794.
-L'espèce type pour le genre est Coreus marginatus (Linné, 1758).
-Synonymie
-Coridus Rafinesque, 1815
-Coraeus Thunberg, 1822 [1]
-Coreas Uhler, 1877 [2]
-Mesocerus Reuter, 1888 [3]</t>
+L'espèce type pour le genre est Coreus marginatus (Linné, 1758).</t>
         </is>
       </c>
     </row>
@@ -544,13 +553,54 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coridus Rafinesque, 1815
+Coraeus Thunberg, 1822 
+Coreas Uhler, 1877 
+Mesocerus Reuter, 1888 </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Coreus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coreus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste des espèces
-Selon BioLib                    (30 juin 2018)[4] :
+Selon BioLib                    (30 juin 2018) :
 Coreus  marginatus (Linnaeus, 1758) - la corée marginée
 Coreus spinigerus Liu &amp; Zheng, 1994
 Nom en synonymie
